--- a/Data/Processing/2024-02-02/LODHA.xlsx
+++ b/Data/Processing/2024-02-02/LODHA.xlsx
@@ -3916,7 +3916,7 @@
         <v>505.54</v>
       </c>
       <c r="C68">
-        <v>506.11</v>
+        <v>506.12</v>
       </c>
       <c r="D68">
         <v>494.92</v>
@@ -3949,7 +3949,7 @@
         <v>0.5899999999999999</v>
       </c>
       <c r="N68">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="O68">
         <v>452.4854545454546</v>
